--- a/usaco-practice/other/2022Jan_Silver_CowFrisbee/CowFrisbee.xlsx
+++ b/usaco-practice/other/2022Jan_Silver_CowFrisbee/CowFrisbee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-practice\other\2022Jan_Silver_ CowFrisbee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-practice\other\2022Jan_Silver_CowFrisbee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45978519-413E-40DE-8265-546344434032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636AAC8-F483-49CC-BB4D-E20E0FD4B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8A9F0C10-B6DE-48D7-965E-5E8151C708C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{8A9F0C10-B6DE-48D7-965E-5E8151C708C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -52,18 +105,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -174,26 +221,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -202,25 +246,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -244,23 +303,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>269038</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>170448</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205541</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>521368</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>6684</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90237</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70186</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接连接符 2">
+        <xdr:cNvPr id="4" name="连接符: 曲线 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28EC1C3-7C7A-490D-B712-41EB694EB5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CBACD0-D936-435D-BB60-3DB06FEB62F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -268,12 +327,180 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="955841" y="1253290"/>
-          <a:ext cx="2804027" cy="16710"/>
+          <a:off x="3689686" y="5048250"/>
+          <a:ext cx="686801" cy="255673"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25065</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="连接符: 曲线 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936AF101-ED1C-43A4-9B21-062DA10DB3D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616618" y="741947"/>
+          <a:ext cx="2531645" cy="436145"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102079"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150395</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="连接符: 曲线 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206EE392-9461-4C7B-9374-7F37A862880E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756987" y="1438776"/>
+          <a:ext cx="2436395" cy="1112921"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2058"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145381</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="连接符: 曲线 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F432D111-B69E-4B08-AEAA-217F7A7C03AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127961" y="6512092"/>
+          <a:ext cx="2060407" cy="1709487"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -592,160 +819,693 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D99771A-3A05-4BF3-BC5E-EA86532A3313}">
-  <dimension ref="C2:K12"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="9" width="2.875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.875" style="1" customWidth="1"/>
+    <col min="10" max="15" width="2.875" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.25" customWidth="1"/>
+    <col min="18" max="18" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="2"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>4</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17">
+        <v>4</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="R22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17">
+        <v>1</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G31" s="8"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17">
+        <v>3</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17">
+        <v>4</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H37" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="2">
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17">
+        <v>3</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17">
+        <v>2</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="S46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17">
+        <v>4</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="S52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2">
+      <c r="S53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="S54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>8</v>
+      </c>
+      <c r="S55">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/usaco-practice/other/2022Jan_Silver_CowFrisbee/CowFrisbee.xlsx
+++ b/usaco-practice/other/2022Jan_Silver_CowFrisbee/CowFrisbee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\usaco-practice\other\2022Jan_Silver_CowFrisbee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636AAC8-F483-49CC-BB4D-E20E0FD4B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060B95-EC2C-4D5E-8770-423AF7D4510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{8A9F0C10-B6DE-48D7-965E-5E8151C708C2}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="37220" windowHeight="21820" xr2:uid="{8A9F0C10-B6DE-48D7-965E-5E8151C708C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>POS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,34 @@
   </si>
   <si>
     <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -215,13 +243,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +323,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,6 +337,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF2CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,61 +355,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>205541</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175461</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>90237</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>70186</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="连接符: 曲线 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CBACD0-D936-435D-BB60-3DB06FEB62F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3689686" y="5048250"/>
-          <a:ext cx="686801" cy="255673"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -469,15 +468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15039</xdr:rowOff>
+      <xdr:colOff>103438</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145381</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6684</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -491,12 +490,257 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1127961" y="6512092"/>
-          <a:ext cx="2060407" cy="1709487"/>
+        <a:xfrm flipV="1">
+          <a:off x="1122780" y="5711658"/>
+          <a:ext cx="2302878" cy="870451"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5148"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143710</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>103606</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50131</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60ADD07-768C-4186-93C0-E4BBFD07C3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3345447" y="4575343"/>
+          <a:ext cx="802106" cy="611604"/>
+          <a:chOff x="3148263" y="4094079"/>
+          <a:chExt cx="1009316" cy="611604"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矩形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F791158-EFC0-4ABE-BDED-1EDEC17264F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3148263" y="4094079"/>
+            <a:ext cx="1009316" cy="233947"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFF2CC">
+              <a:alpha val="29020"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直接箭头连接符 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D892F134-136B-4D62-8853-64FD92F53CD9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3656263" y="4314659"/>
+            <a:ext cx="3342" cy="391024"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135356</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180473</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="连接符: 曲线 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36A453C-732A-4D9E-991F-73DFFC7681F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947488" y="1569118"/>
+          <a:ext cx="2687051" cy="2210803"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2364"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477923</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="连接符: 曲线 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7DCC33-BAB7-437C-8F19-2A2E78389CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2090487" y="6040856"/>
+          <a:ext cx="1427080" cy="875630"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99883"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -819,17 +1063,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D99771A-3A05-4BF3-BC5E-EA86532A3313}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="2.875" style="1" customWidth="1"/>
-    <col min="10" max="15" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.83203125" style="1" customWidth="1"/>
+    <col min="10" max="15" width="2.83203125" customWidth="1"/>
     <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.25" customWidth="1"/>
     <col min="18" max="18" width="6.75" bestFit="1" customWidth="1"/>
@@ -837,12 +1081,12 @@
     <col min="20" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -859,7 +1103,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -876,7 +1120,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>4</v>
       </c>
@@ -893,7 +1137,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="6">
         <v>3</v>
@@ -910,7 +1154,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="11"/>
       <c r="D6" s="14"/>
@@ -927,7 +1171,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="14">
@@ -944,7 +1188,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="13"/>
@@ -964,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1005,7 +1249,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1013,7 +1257,7 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1021,7 +1265,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1029,7 +1273,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -1037,7 +1281,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17">
@@ -1059,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J16" s="17"/>
       <c r="K16" s="17">
         <v>4</v>
@@ -1072,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -1080,7 +1324,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -1088,7 +1332,7 @@
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
@@ -1096,7 +1340,7 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -1104,7 +1348,7 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -1126,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17">
@@ -1139,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J24" s="17"/>
       <c r="K24" s="17">
         <v>4</v>
@@ -1152,34 +1396,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="H29" s="1">
-        <v>7</v>
-      </c>
+    <row r="25" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -1187,163 +1442,115 @@
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <v>6</v>
-      </c>
-      <c r="H30" s="5"/>
+    <row r="30" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="17">
-        <v>1</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="R30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7">
-        <v>5</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="2"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="8:20" x14ac:dyDescent="0.3">
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="17">
-        <v>3</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="6">
-        <v>4</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
       <c r="J32" s="17"/>
-      <c r="K32" s="17">
-        <v>4</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>6</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="2"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="14">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="2"/>
+      <c r="L34" s="17">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="K35" s="17">
+        <v>4</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="3"/>
       <c r="H36" s="2"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="6">
         <v>2</v>
       </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1">
-        <v>7</v>
-      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -1351,155 +1558,171 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
-      <c r="L39" s="17">
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39">
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J40" s="17"/>
-      <c r="K40" s="17">
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41">
         <v>4</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L42" s="17">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17">
+      <c r="K43" s="17">
+        <v>4</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46">
         <v>2</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46">
+      <c r="T46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48">
         <v>4</v>
       </c>
-      <c r="R46" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J48" s="17"/>
-      <c r="K48" s="17">
-        <v>4</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S50">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R52" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R53" t="s">
-        <v>6</v>
-      </c>
-      <c r="S53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R54" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54">
+      <c r="T50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>8</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="18:19" x14ac:dyDescent="0.2">
-      <c r="R55" t="s">
-        <v>8</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
+      <c r="T51" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
